--- a/Practical Exam 1/Data/Config.xlsx
+++ b/Practical Exam 1/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamed.elamri\Desktop\RPA Formation CGI\Certification\Mohamed\UiPath-CertificationExam\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamed.elamri\Desktop\RPA Formation CGI\Certification\Examen Final\UiPath-CertificationExam-master\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -173,26 +173,20 @@
     <t>ACME_Credential</t>
   </si>
   <si>
-    <t>https://acme-test.uipath.com/</t>
-  </si>
-  <si>
-    <t>acmeLogin</t>
-  </si>
-  <si>
-    <t>outputFilePath</t>
-  </si>
-  <si>
-    <t>C:\Users\Javier\Desktop\certificationExam\Data\Output.xlsx</t>
-  </si>
-  <si>
     <t>CertifQueue</t>
+  </si>
+  <si>
+    <t>ACMEWebSite</t>
+  </si>
+  <si>
+    <t>ACMECredentials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -202,12 +196,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -235,18 +223,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -612,7 +597,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -631,56 +616,42 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
       </c>
     </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1647,11 +1618,8 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1659,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2873,7 +2841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2914,7 +2884,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
